--- a/projects/HLR TEST CASE.xlsx
+++ b/projects/HLR TEST CASE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\ST documents\git\28JulySTChetali\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF2C149C-F596-44B4-940E-2B9974F8FFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29431FFB-09C8-4A28-B6C1-7EE1F5C3AC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C33C62A3-82BE-4B34-A1E4-211AA16034DF}"/>
   </bookViews>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2424,8 +2416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9639106F-9CCA-4736-8CC5-6700701D186F}">
   <dimension ref="A1:K186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
